--- a/TAM Questionnaire.xlsx
+++ b/TAM Questionnaire.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="59">
   <si>
     <t>Column</t>
   </si>
@@ -188,9 +188,6 @@
   </si>
   <si>
     <t>P10</t>
-  </si>
-  <si>
-    <t>Table_1</t>
   </si>
 </sst>
 </file>
@@ -1828,9 +1825,7 @@
       <c r="K26" s="15"/>
       <c r="L26" s="15"/>
       <c r="M26" s="15"/>
-      <c r="N26" s="16" t="s">
-        <v>59</v>
-      </c>
+      <c r="N26" s="16"/>
     </row>
   </sheetData>
   <dataValidations>
